--- a/biology/Botanique/Xanthophyceae/Xanthophyceae.xlsx
+++ b/biology/Botanique/Xanthophyceae/Xanthophyceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tribophyceae · Xanthophycées, Tribophycées
 Les Xanthophyceae ou Tribophyceae sont une classe d’algues unicellulaires de l’embranchement des Ochrophyta. Elles sont donc apparentées aux algues brunes, quoique de couleur vert-jaune, généralement d'eau douce, se déplaçant grâce à deux flagelles inégaux ou en émettant des pseudopodes, telle que Vaucheria.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec, xanthos, jaune, et phûkos, algue. 
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (13 jan. 2022)[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (13 jan. 2022)
 Botrydiales Schaffner
 Chloramoebales Fritsch
 Heterogloeales Fott ex P.C.Silva
@@ -554,7 +570,7 @@
 Rhizochloridales Pascher
 Tribonematales Pascher
 Vaucheriales Blackman &amp; Tansley
-Selon ITIS      (13 janvier 2022)[3] :
+Selon ITIS      (13 janvier 2022) :
 Chloramoebales
 Eustigmatophyceae
 Heterogloeales
@@ -562,7 +578,7 @@
 Rhizochloridales
 Tribonematales
 Vaucheriales
-Selon NCBI  (13 janvier 2022)[4] :
+Selon NCBI  (13 janvier 2022) :
 Botrydiales Botryidiales
 Mischococcales
 Tribonematales
@@ -595,6 +611,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
